--- a/Lab_09/data.xlsx
+++ b/Lab_09/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dawid\Python\Basics_of_econometrics\Lab_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76146C6-1ADF-4C93-AFA8-60C1AA4E8EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B41DAAA-3A00-4996-B7A9-B84D300BB1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dane_01" sheetId="1" r:id="rId1"/>
     <sheet name="dane_02" sheetId="2" r:id="rId2"/>
+    <sheet name="dane_03" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Rodzina</t>
   </si>
@@ -41,6 +42,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
   </si>
 </sst>
 </file>
@@ -606,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94721525-F913-43E0-8947-5585C106486D}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
@@ -879,4 +886,470 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE95C3AB-CC43-4020-B805-863695102D57}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1516</v>
+      </c>
+      <c r="B2">
+        <v>213</v>
+      </c>
+      <c r="C2">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3334</v>
+      </c>
+      <c r="B3">
+        <v>299</v>
+      </c>
+      <c r="C3">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1650</v>
+      </c>
+      <c r="B4">
+        <v>338</v>
+      </c>
+      <c r="C4">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1785</v>
+      </c>
+      <c r="B5">
+        <v>354</v>
+      </c>
+      <c r="C5">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6613</v>
+      </c>
+      <c r="B6">
+        <v>234</v>
+      </c>
+      <c r="C6">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4446</v>
+      </c>
+      <c r="B7">
+        <v>279</v>
+      </c>
+      <c r="C7">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1780</v>
+      </c>
+      <c r="B8">
+        <v>398</v>
+      </c>
+      <c r="C8">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1556</v>
+      </c>
+      <c r="B9">
+        <v>273</v>
+      </c>
+      <c r="C9">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3002</v>
+      </c>
+      <c r="B10">
+        <v>384</v>
+      </c>
+      <c r="C10">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3120</v>
+      </c>
+      <c r="B11">
+        <v>390</v>
+      </c>
+      <c r="C11">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2461</v>
+      </c>
+      <c r="B12">
+        <v>700</v>
+      </c>
+      <c r="C12">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1522</v>
+      </c>
+      <c r="B13">
+        <v>117</v>
+      </c>
+      <c r="C13">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2898</v>
+      </c>
+      <c r="B14">
+        <v>387</v>
+      </c>
+      <c r="C14">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1449</v>
+      </c>
+      <c r="B15">
+        <v>381</v>
+      </c>
+      <c r="C15">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1952</v>
+      </c>
+      <c r="B16">
+        <v>194</v>
+      </c>
+      <c r="C16">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1230</v>
+      </c>
+      <c r="B17">
+        <v>250</v>
+      </c>
+      <c r="C17">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1412</v>
+      </c>
+      <c r="B18">
+        <v>324</v>
+      </c>
+      <c r="C18">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1231</v>
+      </c>
+      <c r="B19">
+        <v>892</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>3572</v>
+      </c>
+      <c r="B20">
+        <v>439</v>
+      </c>
+      <c r="C20">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>4227</v>
+      </c>
+      <c r="B21">
+        <v>820</v>
+      </c>
+      <c r="C21">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2063</v>
+      </c>
+      <c r="B22">
+        <v>270</v>
+      </c>
+      <c r="C22">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3145</v>
+      </c>
+      <c r="B23">
+        <v>402</v>
+      </c>
+      <c r="C23">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1638</v>
+      </c>
+      <c r="B24">
+        <v>178</v>
+      </c>
+      <c r="C24">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>6145</v>
+      </c>
+      <c r="B25">
+        <v>1082</v>
+      </c>
+      <c r="C25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3005</v>
+      </c>
+      <c r="B26">
+        <v>416</v>
+      </c>
+      <c r="C26">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>6695</v>
+      </c>
+      <c r="B27">
+        <v>1065</v>
+      </c>
+      <c r="C27">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>7305</v>
+      </c>
+      <c r="B28">
+        <v>551</v>
+      </c>
+      <c r="C28">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>8564</v>
+      </c>
+      <c r="B29">
+        <v>284</v>
+      </c>
+      <c r="C29">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>5096</v>
+      </c>
+      <c r="B30">
+        <v>623</v>
+      </c>
+      <c r="C30">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>3450</v>
+      </c>
+      <c r="B31">
+        <v>609</v>
+      </c>
+      <c r="C31">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1237</v>
+      </c>
+      <c r="B32">
+        <v>134</v>
+      </c>
+      <c r="C32">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>6348</v>
+      </c>
+      <c r="B33">
+        <v>1529</v>
+      </c>
+      <c r="C33">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1500</v>
+      </c>
+      <c r="B34">
+        <v>171</v>
+      </c>
+      <c r="C34">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>3003</v>
+      </c>
+      <c r="B35">
+        <v>471</v>
+      </c>
+      <c r="C35">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>5628</v>
+      </c>
+      <c r="B36">
+        <v>1088</v>
+      </c>
+      <c r="C36">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2969</v>
+      </c>
+      <c r="B37">
+        <v>812</v>
+      </c>
+      <c r="C37">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>4660</v>
+      </c>
+      <c r="B38">
+        <v>325</v>
+      </c>
+      <c r="C38">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>11764</v>
+      </c>
+      <c r="B39">
+        <v>1139</v>
+      </c>
+      <c r="C39">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2562</v>
+      </c>
+      <c r="B40">
+        <v>490</v>
+      </c>
+      <c r="C40">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1792</v>
+      </c>
+      <c r="B41">
+        <v>389</v>
+      </c>
+      <c r="C41">
+        <v>789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>